--- a/Switches_SSH-data.xlsx
+++ b/Switches_SSH-data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFEF90B-8553-4969-AF34-35560C681487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,15 +40,9 @@
     <t>cisco</t>
   </si>
   <si>
-    <t>192.168.10.5/24</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
-    <t>10.1.1.5/24</t>
-  </si>
-  <si>
     <t>IP address</t>
   </si>
   <si>
@@ -55,12 +50,18 @@
   </si>
   <si>
     <t>Management</t>
+  </si>
+  <si>
+    <t>192.168.10.5</t>
+  </si>
+  <si>
+    <t>10.1.1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,6 +206,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -240,6 +258,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,22 +450,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="1" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,13 +479,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -464,15 +499,15 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -484,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -497,24 +532,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Switches_SSH-data.xlsx
+++ b/Switches_SSH-data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFEF90B-8553-4969-AF34-35560C681487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18B4687-E0AD-4930-9CCF-81A3483120CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="3495" windowWidth="14475" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>Management</t>
   </si>
   <si>
-    <t>192.168.10.5</t>
-  </si>
-  <si>
-    <t>10.1.1.5</t>
+    <t>192.168.10.5/24</t>
+  </si>
+  <si>
+    <t>10.1.1.5/24</t>
   </si>
 </sst>
 </file>
@@ -454,18 +454,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -505,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -537,7 +537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Switches_SSH-data.xlsx
+++ b/Switches_SSH-data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18B4687-E0AD-4930-9CCF-81A3483120CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFEF90B-8553-4969-AF34-35560C681487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="3495" windowWidth="14475" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>Management</t>
   </si>
   <si>
-    <t>192.168.10.5/24</t>
-  </si>
-  <si>
-    <t>10.1.1.5/24</t>
+    <t>192.168.10.5</t>
+  </si>
+  <si>
+    <t>10.1.1.5</t>
   </si>
 </sst>
 </file>
@@ -454,18 +454,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -505,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -537,7 +537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
